--- a/produtos papelaria.xlsx
+++ b/produtos papelaria.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moovc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC PAPELARIA\Documents\GITHUB\CAPK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F2B3BC3-9933-4461-95ED-D70C5E8C1B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C91D262-176B-4E47-A965-411A5A361C04}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="export_items (1)" sheetId="2" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'export_items (1)'!$E$1:$G$105</definedName>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'export_items (1)'!$A$1:$C$105</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{BA0A70B9-5124-48CD-8A14-9832D0D9DD61}" keepAlive="1" name="Consulta - export_items (1)" description="Conexão com a consulta 'export_items (1)' na pasta de trabalho." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Consulta - export_items (1)" description="Conexão com a consulta 'export_items (1)' na pasta de trabalho." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;export_items (1)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [export_items (1)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="443">
   <si>
     <t>Handle</t>
   </si>
@@ -825,9 +825,6 @@
     <t>Impressão de atestados e certidões.</t>
   </si>
   <si>
-    <t>Serviço de digitalização de música.</t>
-  </si>
-  <si>
     <t>Baixar filmes de fontes online.</t>
   </si>
   <si>
@@ -1372,12 +1369,18 @@
   </si>
   <si>
     <t>10 - Plastificação Pequena</t>
+  </si>
+  <si>
+    <t>Baixar Música</t>
+  </si>
+  <si>
+    <t>Serviço de download de música.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1387,12 +1390,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1407,9 +1416,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,7 +1448,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="1" xr16:uid="{7BC44A1C-CD4E-481A-94FD-46BDC7E59634}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DadosExternos_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="23">
     <queryTableFields count="3">
       <queryTableField id="1" name="Handle" tableColumnId="1"/>
@@ -1471,12 +1481,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EE13187-6C4B-4B06-B315-56EF8B6B7241}" name="export_items__1" displayName="export_items__1" ref="A1:C105" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C105" xr:uid="{5EE13187-6C4B-4B06-B315-56EF8B6B7241}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="export_items__1" displayName="export_items__1" ref="A1:C105" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C105"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6652E8EE-8A0D-451C-AF28-ADDAAC6C753C}" uniqueName="1" name="Handle" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D4ED77CB-7820-48A2-B698-E068056C692F}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{631BA3AD-99C7-490A-9AC4-072963826FD7}" uniqueName="19" name="Price [Papelaria Almeida]" queryTableFieldId="19" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="Handle" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="19" uniqueName="19" name="Price [Papelaria Almeida]" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1778,25 +1788,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1EED8A-BAE0-4172-B995-F525D4C8921C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1806,17 +1816,17 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1826,17 +1836,17 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1846,17 +1856,17 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1866,17 +1876,17 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1886,17 +1896,17 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1906,17 +1916,17 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>436</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1926,17 +1936,17 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1946,17 +1956,17 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>438</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1966,17 +1976,17 @@
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
-        <v>439</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1986,17 +1996,17 @@
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>440</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2006,17 +2016,17 @@
       <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>441</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2026,17 +2036,17 @@
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,7 +2066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2066,17 +2076,17 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
-        <v>350</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2087,16 +2097,16 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>442</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2107,16 +2117,16 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2126,17 +2136,17 @@
       <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
-        <v>352</v>
-      </c>
-      <c r="F17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -2147,16 +2157,16 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -2166,17 +2176,17 @@
       <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E19" t="s">
-        <v>354</v>
-      </c>
-      <c r="F19" t="s">
-        <v>263</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -2186,17 +2196,17 @@
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s">
-        <v>355</v>
-      </c>
-      <c r="F20" t="s">
-        <v>264</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2206,17 +2216,17 @@
       <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E21" t="s">
-        <v>356</v>
-      </c>
-      <c r="F21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,17 +2236,17 @@
       <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E22" t="s">
-        <v>357</v>
-      </c>
-      <c r="F22" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="E22" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -2246,17 +2256,17 @@
       <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
-        <v>358</v>
-      </c>
-      <c r="F23" t="s">
-        <v>267</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="E23" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -2266,17 +2276,17 @@
       <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" t="s">
-        <v>359</v>
-      </c>
-      <c r="F24" t="s">
-        <v>268</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="E24" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -2287,16 +2297,16 @@
         <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2306,17 +2316,17 @@
       <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E26" t="s">
-        <v>361</v>
-      </c>
-      <c r="F26" t="s">
-        <v>270</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="E26" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -2326,17 +2336,17 @@
       <c r="C27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E27" t="s">
-        <v>362</v>
-      </c>
-      <c r="F27" t="s">
-        <v>271</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E27" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -2346,17 +2356,17 @@
       <c r="C28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E28" t="s">
-        <v>363</v>
-      </c>
-      <c r="F28" t="s">
-        <v>272</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E28" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
@@ -2366,17 +2376,17 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E29" t="s">
-        <v>364</v>
-      </c>
-      <c r="F29" t="s">
-        <v>273</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="E29" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -2386,17 +2396,17 @@
       <c r="C30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E30" t="s">
-        <v>365</v>
-      </c>
-      <c r="F30" t="s">
-        <v>274</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E30" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
@@ -2406,17 +2416,17 @@
       <c r="C31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E31" t="s">
-        <v>366</v>
-      </c>
-      <c r="F31" t="s">
-        <v>275</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="E31" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
@@ -2426,17 +2436,17 @@
       <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E32" t="s">
-        <v>367</v>
-      </c>
-      <c r="F32" t="s">
-        <v>276</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="E32" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
@@ -2446,17 +2456,17 @@
       <c r="C33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E33" t="s">
-        <v>368</v>
-      </c>
-      <c r="F33" t="s">
-        <v>277</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="E33" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
@@ -2466,17 +2476,17 @@
       <c r="C34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E34" t="s">
-        <v>369</v>
-      </c>
-      <c r="F34" t="s">
-        <v>278</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="E34" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
@@ -2490,13 +2500,13 @@
         <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -2507,16 +2517,16 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -2526,17 +2536,17 @@
       <c r="C37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E37" t="s">
-        <v>371</v>
-      </c>
-      <c r="F37" t="s">
-        <v>281</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="E37" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>98</v>
       </c>
@@ -2546,17 +2556,17 @@
       <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F38" t="s">
-        <v>282</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -2566,17 +2576,17 @@
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E39" t="s">
-        <v>372</v>
-      </c>
-      <c r="F39" t="s">
-        <v>283</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="E39" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
@@ -2586,17 +2596,17 @@
       <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E40" t="s">
-        <v>373</v>
-      </c>
-      <c r="F40" t="s">
-        <v>284</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="E40" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>105</v>
       </c>
@@ -2607,16 +2617,16 @@
         <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>107</v>
       </c>
@@ -2626,17 +2636,17 @@
       <c r="C42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E42" t="s">
-        <v>375</v>
-      </c>
-      <c r="F42" t="s">
-        <v>286</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="E42" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -2646,17 +2656,17 @@
       <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E43" t="s">
-        <v>376</v>
-      </c>
-      <c r="F43" t="s">
-        <v>287</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="E43" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>112</v>
       </c>
@@ -2666,17 +2676,17 @@
       <c r="C44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E44" t="s">
-        <v>377</v>
-      </c>
-      <c r="F44" t="s">
-        <v>288</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="E44" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
@@ -2686,17 +2696,17 @@
       <c r="C45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E45" t="s">
-        <v>378</v>
-      </c>
-      <c r="F45" t="s">
-        <v>289</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="E45" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
@@ -2706,17 +2716,17 @@
       <c r="C46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E46" t="s">
-        <v>379</v>
-      </c>
-      <c r="F46" t="s">
-        <v>290</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="E46" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
@@ -2730,13 +2740,13 @@
         <v>119</v>
       </c>
       <c r="F47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -2746,17 +2756,17 @@
       <c r="C48" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E48" t="s">
-        <v>380</v>
-      </c>
-      <c r="F48" t="s">
-        <v>292</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="E48" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>123</v>
       </c>
@@ -2767,16 +2777,16 @@
         <v>37</v>
       </c>
       <c r="E49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>125</v>
       </c>
@@ -2787,16 +2797,16 @@
         <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>127</v>
       </c>
@@ -2806,17 +2816,17 @@
       <c r="C51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E51" t="s">
-        <v>383</v>
-      </c>
-      <c r="F51" t="s">
-        <v>295</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="E51" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>129</v>
       </c>
@@ -2826,17 +2836,17 @@
       <c r="C52" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E52" t="s">
-        <v>384</v>
-      </c>
-      <c r="F52" t="s">
-        <v>296</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="E52" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>132</v>
       </c>
@@ -2846,17 +2856,17 @@
       <c r="C53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F53" t="s">
-        <v>297</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F53" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
@@ -2866,17 +2876,17 @@
       <c r="C54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E54" t="s">
-        <v>385</v>
-      </c>
-      <c r="F54" t="s">
-        <v>298</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="E54" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>136</v>
       </c>
@@ -2886,17 +2896,17 @@
       <c r="C55" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E55" t="s">
-        <v>386</v>
-      </c>
-      <c r="F55" t="s">
-        <v>299</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="E55" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>139</v>
       </c>
@@ -2906,17 +2916,17 @@
       <c r="C56" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E56" t="s">
-        <v>386</v>
-      </c>
-      <c r="F56" t="s">
-        <v>300</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="E56" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>140</v>
       </c>
@@ -2926,17 +2936,17 @@
       <c r="C57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E57" t="s">
-        <v>386</v>
-      </c>
-      <c r="F57" t="s">
-        <v>301</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="E57" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>141</v>
       </c>
@@ -2946,17 +2956,17 @@
       <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E58" t="s">
-        <v>386</v>
-      </c>
-      <c r="F58" t="s">
-        <v>302</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="E58" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>142</v>
       </c>
@@ -2967,16 +2977,16 @@
         <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>144</v>
       </c>
@@ -2987,16 +2997,16 @@
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>146</v>
       </c>
@@ -3007,16 +3017,16 @@
         <v>100</v>
       </c>
       <c r="E61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G61" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>148</v>
       </c>
@@ -3027,16 +3037,16 @@
         <v>37</v>
       </c>
       <c r="E62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G62" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>150</v>
       </c>
@@ -3047,16 +3057,16 @@
         <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G63" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>153</v>
       </c>
@@ -3067,16 +3077,16 @@
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>155</v>
       </c>
@@ -3087,16 +3097,16 @@
         <v>37</v>
       </c>
       <c r="E65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>157</v>
       </c>
@@ -3107,16 +3117,16 @@
         <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G66" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>160</v>
       </c>
@@ -3127,16 +3137,16 @@
         <v>50</v>
       </c>
       <c r="E67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G67" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>162</v>
       </c>
@@ -3147,16 +3157,16 @@
         <v>37</v>
       </c>
       <c r="E68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>164</v>
       </c>
@@ -3167,16 +3177,16 @@
         <v>37</v>
       </c>
       <c r="E69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>166</v>
       </c>
@@ -3187,16 +3197,16 @@
         <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G70" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>169</v>
       </c>
@@ -3207,16 +3217,16 @@
         <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G71" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>171</v>
       </c>
@@ -3227,16 +3237,16 @@
         <v>37</v>
       </c>
       <c r="E72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G72" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>173</v>
       </c>
@@ -3247,16 +3257,16 @@
         <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G73" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>175</v>
       </c>
@@ -3267,16 +3277,16 @@
         <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G74" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>177</v>
       </c>
@@ -3287,16 +3297,16 @@
         <v>37</v>
       </c>
       <c r="E75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>179</v>
       </c>
@@ -3307,16 +3317,16 @@
         <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G76" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>182</v>
       </c>
@@ -3327,16 +3337,16 @@
         <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G77" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>184</v>
       </c>
@@ -3347,16 +3357,16 @@
         <v>186</v>
       </c>
       <c r="E78" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G78" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>187</v>
       </c>
@@ -3367,16 +3377,16 @@
         <v>189</v>
       </c>
       <c r="E79" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G79" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>190</v>
       </c>
@@ -3387,16 +3397,16 @@
         <v>37</v>
       </c>
       <c r="E80" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F80" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G80" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>192</v>
       </c>
@@ -3407,16 +3417,16 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>194</v>
       </c>
@@ -3427,16 +3437,16 @@
         <v>37</v>
       </c>
       <c r="E82" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>196</v>
       </c>
@@ -3447,16 +3457,16 @@
         <v>37</v>
       </c>
       <c r="E83" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>198</v>
       </c>
@@ -3470,13 +3480,13 @@
         <v>199</v>
       </c>
       <c r="F84" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>200</v>
       </c>
@@ -3487,16 +3497,16 @@
         <v>37</v>
       </c>
       <c r="E85" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G85" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>202</v>
       </c>
@@ -3507,16 +3517,16 @@
         <v>37</v>
       </c>
       <c r="E86" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F86" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>204</v>
       </c>
@@ -3527,16 +3537,16 @@
         <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F87" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G87" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>206</v>
       </c>
@@ -3547,16 +3557,16 @@
         <v>152</v>
       </c>
       <c r="E88" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F88" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G88" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>208</v>
       </c>
@@ -3567,16 +3577,16 @@
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F89" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G89" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>210</v>
       </c>
@@ -3587,16 +3597,16 @@
         <v>37</v>
       </c>
       <c r="E90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>212</v>
       </c>
@@ -3607,16 +3617,16 @@
         <v>138</v>
       </c>
       <c r="E91" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F91" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G91" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>214</v>
       </c>
@@ -3627,16 +3637,16 @@
         <v>216</v>
       </c>
       <c r="E92" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G92" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>217</v>
       </c>
@@ -3647,16 +3657,16 @@
         <v>37</v>
       </c>
       <c r="E93" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F93" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G93" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>219</v>
       </c>
@@ -3667,16 +3677,16 @@
         <v>221</v>
       </c>
       <c r="E94" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G94" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>222</v>
       </c>
@@ -3687,16 +3697,16 @@
         <v>37</v>
       </c>
       <c r="E95" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G95" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>224</v>
       </c>
@@ -3707,16 +3717,16 @@
         <v>226</v>
       </c>
       <c r="E96" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F96" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G96" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>227</v>
       </c>
@@ -3727,16 +3737,16 @@
         <v>37</v>
       </c>
       <c r="E97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>229</v>
       </c>
@@ -3747,16 +3757,16 @@
         <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G98" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>231</v>
       </c>
@@ -3767,16 +3777,16 @@
         <v>50</v>
       </c>
       <c r="E99" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>233</v>
       </c>
@@ -3787,16 +3797,16 @@
         <v>37</v>
       </c>
       <c r="E100" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F100" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>235</v>
       </c>
@@ -3807,16 +3817,16 @@
         <v>37</v>
       </c>
       <c r="E101" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F101" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>237</v>
       </c>
@@ -3827,16 +3837,16 @@
         <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F102" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G102" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>239</v>
       </c>
@@ -3847,16 +3857,16 @@
         <v>37</v>
       </c>
       <c r="E103" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>241</v>
       </c>
@@ -3867,16 +3877,16 @@
         <v>243</v>
       </c>
       <c r="E104" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F104" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G104" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>244</v>
       </c>
@@ -3887,10 +3897,10 @@
         <v>100</v>
       </c>
       <c r="E105" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F105" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G105" t="s">
         <v>100</v>
@@ -3906,14 +3916,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAA6DA4-76FA-49EA-A1D7-B378769F654F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
